--- a/TestApplications/SwagLabs/TestData/ProductsTestCases/Buy_Product_Test_Case_002.xlsx
+++ b/TestApplications/SwagLabs/TestData/ProductsTestCases/Buy_Product_Test_Case_002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\source\repos\POMexample\TestApplications\SwagLabs\TestData\ProductsTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31068121-3B78-43ED-8C91-6285D170A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABFB8F-2367-4339-AC98-BE23B9C5751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="12166" windowHeight="14362" xr2:uid="{D12192DA-D147-4C33-86A7-F71EC5635931}"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="18000" windowHeight="10432" xr2:uid="{D12192DA-D147-4C33-86A7-F71EC5635931}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Nombre del producto que se desea buscar.</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Homero</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>Nombre para finalizar la compra.</t>
+  </si>
+  <si>
+    <t>Apellido para finalizar la compra.</t>
+  </si>
+  <si>
+    <t>Código postal para finalizar la compra.</t>
   </si>
 </sst>
 </file>
@@ -456,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EE4616-D14E-4186-A77D-B90B6B28790F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -514,29 +541,37 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
